--- a/data_year/zb/国民经济核算/投入产出直接消耗系数/农、林、牧、渔业投入产出直接消耗系数.xlsx
+++ b/data_year/zb/国民经济核算/投入产出直接消耗系数/农、林、牧、渔业投入产出直接消耗系数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y6"/>
+  <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,379 +558,302 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.413838918151675</v>
+        <v>0.415266633775631</v>
       </c>
       <c r="D2" t="n">
-        <v>0.003004959146701</v>
+        <v>0.002891203793553</v>
       </c>
       <c r="E2" t="n">
-        <v>0.016081934857728</v>
+        <v>0.016209251610105</v>
       </c>
       <c r="F2" t="n">
-        <v>0.140657283210788</v>
+        <v>0.133010336994101</v>
       </c>
       <c r="G2" t="n">
-        <v>0.555941075553559</v>
+        <v>0.556303286527096</v>
       </c>
       <c r="H2" t="n">
-        <v>0.076271666586645</v>
+        <v>0.07850731511299899</v>
       </c>
       <c r="I2" t="n">
-        <v>0.029242320327263</v>
+        <v>0.027299811000594</v>
       </c>
       <c r="J2" t="n">
-        <v>0.586161081848325</v>
+        <v>0.584733366224369</v>
       </c>
       <c r="K2" t="n">
-        <v>0.000231672119086</v>
+        <v>0.00024919821534</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001674433121514</v>
+        <v>0.001688668721448</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01741968765851</v>
+        <v>0.016412296870323</v>
       </c>
       <c r="N2" t="n">
-        <v>0.010861371186191</v>
+        <v>0.009753450149736</v>
       </c>
       <c r="O2" t="n">
-        <v>0.008101617769713</v>
+        <v>0.007069776595558</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0009776859675039999</v>
+        <v>0.001130268696678</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.009559188371182</v>
+        <v>0.01023213627264</v>
       </c>
       <c r="R2" t="n">
-        <v>0.000555496614461</v>
+        <v>0.000522599206009</v>
       </c>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="n">
-        <v>0.01985549517462</v>
+        <v>0.022342383471767</v>
       </c>
       <c r="U2" t="n">
-        <v>0.000676689017059</v>
+        <v>0.000810748842364</v>
       </c>
       <c r="V2" t="n">
-        <v>0.002983994007469</v>
+        <v>0.003409355652275</v>
       </c>
       <c r="W2" t="n">
-        <v>0.008311254440127</v>
+        <v>0.007955044650646</v>
       </c>
       <c r="X2" t="n">
-        <v>0.001417129229666</v>
+        <v>0.001424060520553</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.09617504564021601</v>
+        <v>0.102778807096214</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.415266633775631</v>
+        <v>0.414470733356237</v>
       </c>
       <c r="D3" t="n">
-        <v>0.002891203793553</v>
+        <v>0.000748519464197</v>
       </c>
       <c r="E3" t="n">
-        <v>0.016209251610105</v>
+        <v>0.008696472692710001</v>
       </c>
       <c r="F3" t="n">
-        <v>0.133010336994101</v>
+        <v>0.137780974169448</v>
       </c>
       <c r="G3" t="n">
-        <v>0.556303286527096</v>
+        <v>0.592658466521511</v>
       </c>
       <c r="H3" t="n">
-        <v>0.07850731511299899</v>
+        <v>0.084763486914734</v>
       </c>
       <c r="I3" t="n">
-        <v>0.027299811000594</v>
+        <v>0.025252965719603</v>
       </c>
       <c r="J3" t="n">
-        <v>0.584733366224369</v>
+        <v>0.585529266643763</v>
       </c>
       <c r="K3" t="n">
-        <v>0.00024919821534</v>
+        <v>9.106113072e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001688668721448</v>
+        <v>0.000358007538754</v>
       </c>
       <c r="M3" t="n">
-        <v>0.016412296870323</v>
+        <v>0.015632953573765</v>
       </c>
       <c r="N3" t="n">
-        <v>0.009753450149736</v>
+        <v>0.008174090583925001</v>
       </c>
       <c r="O3" t="n">
-        <v>0.007069776595558</v>
+        <v>0.016214347443571</v>
       </c>
       <c r="P3" t="n">
-        <v>0.001130268696678</v>
+        <v>-0.032382165597351</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.01023213627264</v>
+        <v>0.009975622128131001</v>
       </c>
       <c r="R3" t="n">
-        <v>0.000522599206009</v>
+        <v>0.000444093748399</v>
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="n">
-        <v>0.022342383471767</v>
+        <v>0.013111444137423</v>
       </c>
       <c r="U3" t="n">
-        <v>0.000810748842364</v>
+        <v>6.6593951183e-05</v>
       </c>
       <c r="V3" t="n">
-        <v>0.003409355652275</v>
+        <v>0.000480450566312</v>
       </c>
       <c r="W3" t="n">
-        <v>0.007955044650646</v>
+        <v>0.012355832805421</v>
       </c>
       <c r="X3" t="n">
-        <v>0.001424060520553</v>
+        <v>0.000324237826224</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.102778807096214</v>
+        <v>0.105252544681321</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.414470733356237</v>
+        <v>0.412421203485124</v>
       </c>
       <c r="D4" t="n">
-        <v>0.000748519464197</v>
+        <v>0.000661384947641</v>
       </c>
       <c r="E4" t="n">
-        <v>0.008696472692710001</v>
+        <v>0.007973240260034001</v>
       </c>
       <c r="F4" t="n">
-        <v>0.137780974169448</v>
+        <v>0.1298364226037</v>
       </c>
       <c r="G4" t="n">
-        <v>0.592658466521511</v>
+        <v>0.593245602408724</v>
       </c>
       <c r="H4" t="n">
-        <v>0.084763486914734</v>
+        <v>0.09099241468434199</v>
       </c>
       <c r="I4" t="n">
-        <v>0.025252965719603</v>
+        <v>0.019242587721999</v>
       </c>
       <c r="J4" t="n">
-        <v>0.585529266643763</v>
+        <v>0.587578796514873</v>
       </c>
       <c r="K4" t="n">
-        <v>9.106113072e-05</v>
+        <v>8.529017701599999e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>0.000358007538754</v>
+        <v>0.000389174855039</v>
       </c>
       <c r="M4" t="n">
-        <v>0.015632953573765</v>
+        <v>0.012506162636636</v>
       </c>
       <c r="N4" t="n">
-        <v>0.008174090583925001</v>
+        <v>0.008287258354922</v>
       </c>
       <c r="O4" t="n">
-        <v>0.016214347443571</v>
+        <v>0.008748485462118</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.032382165597351</v>
+        <v>-0.036709821081727</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.009975622128131001</v>
+        <v>0.006761329628123</v>
       </c>
       <c r="R4" t="n">
-        <v>0.000444093748399</v>
-      </c>
-      <c r="S4" t="inlineStr"/>
+        <v>0.000453883728952</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.011800427465877</v>
+      </c>
       <c r="T4" t="n">
-        <v>0.013111444137423</v>
+        <v>0.011863328636542</v>
       </c>
       <c r="U4" t="n">
-        <v>6.6593951183e-05</v>
+        <v>3.710088532e-05</v>
       </c>
       <c r="V4" t="n">
-        <v>0.000480450566312</v>
+        <v>0.000396410012308</v>
       </c>
       <c r="W4" t="n">
-        <v>0.012355832805421</v>
+        <v>0.010206374882291</v>
       </c>
       <c r="X4" t="n">
-        <v>0.000324237826224</v>
+        <v>0.000230581742907</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.105252544681321</v>
+        <v>0.122992359987234</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.412421203485124</v>
+        <v>0.405648785753541</v>
       </c>
       <c r="D5" t="n">
-        <v>0.000661384947641</v>
+        <v>0.000147698164088</v>
       </c>
       <c r="E5" t="n">
-        <v>0.007973240260034001</v>
+        <v>0.008253123187086001</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1298364226037</v>
+        <v>0.133338642927331</v>
       </c>
       <c r="G5" t="n">
-        <v>0.593245602408724</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.09099241468434199</v>
-      </c>
+        <v>0.592703702193294</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0.019242587721999</v>
+        <v>0.020752894306304</v>
       </c>
       <c r="J5" t="n">
-        <v>0.587578796514873</v>
+        <v>0.594351214246459</v>
       </c>
       <c r="K5" t="n">
-        <v>8.529017701599999e-05</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.000389174855039</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.012506162636636</v>
-      </c>
+        <v>0.000681319066577</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
-        <v>0.008287258354922</v>
+        <v>0.012013386546894</v>
       </c>
       <c r="O5" t="n">
-        <v>0.008748485462118</v>
+        <v>0.086243705020284</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.036709821081727</v>
+        <v>-0.030970682035133</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.006761329628123</v>
+        <v>0.009116874203938001</v>
       </c>
       <c r="R5" t="n">
-        <v>0.000453883728952</v>
+        <v>0.000200572155853</v>
       </c>
       <c r="S5" t="n">
-        <v>0.011800427465877</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.011863328636542</v>
-      </c>
+        <v>0.011865299781993</v>
+      </c>
+      <c r="T5" t="inlineStr"/>
       <c r="U5" t="n">
-        <v>3.710088532e-05</v>
+        <v>0.00056180437594</v>
       </c>
       <c r="V5" t="n">
-        <v>0.000396410012308</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.010206374882291</v>
-      </c>
+        <v>0.000911947162123</v>
+      </c>
+      <c r="W5" t="inlineStr"/>
       <c r="X5" t="n">
-        <v>0.000230581742907</v>
+        <v>0.000429066799805</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.122992359987234</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.405648785753541</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.000147698164088</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.008253123187086001</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.133338642927331</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.592703702193294</v>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="n">
-        <v>0.020752894306304</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.594351214246459</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.000681319066577</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
-        <v>0.012013386546894</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.086243705020284</v>
-      </c>
-      <c r="P6" t="n">
-        <v>-0.030970682035133</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.009116874203938001</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.000200572155853</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.011865299781993</v>
-      </c>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="n">
-        <v>0.00056180437594</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0.000911947162123</v>
-      </c>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="n">
-        <v>0.000429066799805</v>
-      </c>
-      <c r="Y6" t="n">
         <v>0.086656644514866</v>
       </c>
     </row>
